--- a/biology/Médecine/China–Cornell–Oxford_Project/China–Cornell–Oxford_Project.xlsx
+++ b/biology/Médecine/China–Cornell–Oxford_Project/China–Cornell–Oxford_Project.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>China%E2%80%93Cornell%E2%80%93Oxford_Project</t>
+          <t>China–Cornell–Oxford_Project</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le China-Cornell-Oxford Project (Projet Chine-Cornell-Oxford) est une longue enquête conduite au long des années 1980 dans la Chine rurale, conjointement financé par l'Université Cornell, l'Université d'Oxford, et le gouvernement de la Chine populaire[1],[2].  
-En 1991, le The New York Times l'a appelé Grand Prix d'épidémiologie[pas clair][3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le China-Cornell-Oxford Project (Projet Chine-Cornell-Oxford) est une longue enquête conduite au long des années 1980 dans la Chine rurale, conjointement financé par l'Université Cornell, l'Université d'Oxford, et le gouvernement de la Chine populaire,.  
+En 1991, le The New York Times l'a appelé Grand Prix d'épidémiologie[pas clair].
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>China%E2%80%93Cornell%E2%80%93Oxford_Project</t>
+          <t>China–Cornell–Oxford_Project</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux grandes premières études ont été conduites par T. Colin Campbell, professeur de biochimie nutritionnelle à Cornell, qui en a résumé les résultats dans son livre The China Study (2004). D'autres chercheurs clés étaient Chen Junshi, Directeur Député à l'Institut de Nutrition et d'Hygiène Alimentaire à l'Académie Chinoise de Médecine Préventive, Richard Peto de l'Université d'Oxford, et Li Junyao de l'Institut de Cancer en Chine[4].
-L'étude a examiné les régimes alimentaires, style de vie et caractéristiques pathologiques de 6 500 personnes dans 65 comtés ruraux chinois, en comparant la prévalence des caractéristiques pathologiques et en excluant les causes de mort comme les accidents[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux grandes premières études ont été conduites par T. Colin Campbell, professeur de biochimie nutritionnelle à Cornell, qui en a résumé les résultats dans son livre The China Study (2004). D'autres chercheurs clés étaient Chen Junshi, Directeur Député à l'Institut de Nutrition et d'Hygiène Alimentaire à l'Académie Chinoise de Médecine Préventive, Richard Peto de l'Université d'Oxford, et Li Junyao de l'Institut de Cancer en Chine.
+L'étude a examiné les régimes alimentaires, style de vie et caractéristiques pathologiques de 6 500 personnes dans 65 comtés ruraux chinois, en comparant la prévalence des caractéristiques pathologiques et en excluant les causes de mort comme les accidents.
 </t>
         </is>
       </c>
